--- a/src/main/java/com/example/wetro/station/repository/stations.xlsx
+++ b/src/main/java/com/example/wetro/station/repository/stations.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A423BD3A-BDFC-4272-A0F2-0D9C8B0F6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>출발역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,12 +52,15 @@
     <t>비용(원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>호선</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,16 +377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +402,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>101</v>
       </c>
@@ -404,8 +422,11 @@
       <c r="E2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>102</v>
       </c>
@@ -421,8 +442,11 @@
       <c r="E3">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>103</v>
       </c>
@@ -438,8 +462,11 @@
       <c r="E4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>104</v>
       </c>
@@ -455,8 +482,11 @@
       <c r="E5">
         <v>340</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>105</v>
       </c>
@@ -472,8 +502,11 @@
       <c r="E6">
         <v>450</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>106</v>
       </c>
@@ -489,8 +522,11 @@
       <c r="E7">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>107</v>
       </c>
@@ -506,8 +542,11 @@
       <c r="E8">
         <v>650</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>108</v>
       </c>
@@ -523,8 +562,11 @@
       <c r="E9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>109</v>
       </c>
@@ -540,8 +582,11 @@
       <c r="E10">
         <v>430</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>110</v>
       </c>
@@ -557,8 +602,11 @@
       <c r="E11">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>111</v>
       </c>
@@ -574,8 +622,11 @@
       <c r="E12">
         <v>890</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>112</v>
       </c>
@@ -591,8 +642,11 @@
       <c r="E13">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>113</v>
       </c>
@@ -608,8 +662,11 @@
       <c r="E14">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>114</v>
       </c>
@@ -625,8 +682,11 @@
       <c r="E15">
         <v>540</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>115</v>
       </c>
@@ -642,8 +702,11 @@
       <c r="E16">
         <v>330</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -659,8 +722,11 @@
       <c r="E17">
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>117</v>
       </c>
@@ -676,8 +742,11 @@
       <c r="E18">
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>118</v>
       </c>
@@ -693,8 +762,11 @@
       <c r="E19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>119</v>
       </c>
@@ -710,8 +782,11 @@
       <c r="E20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>120</v>
       </c>
@@ -727,8 +802,11 @@
       <c r="E21">
         <v>700</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>121</v>
       </c>
@@ -744,8 +822,11 @@
       <c r="E22">
         <v>650</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>122</v>
       </c>
@@ -761,8 +842,11 @@
       <c r="E23">
         <v>440</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>123</v>
       </c>
@@ -778,8 +862,11 @@
       <c r="E24">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>101</v>
       </c>
@@ -795,8 +882,11 @@
       <c r="E25">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>201</v>
       </c>
@@ -812,8 +902,11 @@
       <c r="E26">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>202</v>
       </c>
@@ -829,8 +922,11 @@
       <c r="E27">
         <v>340</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>203</v>
       </c>
@@ -846,8 +942,11 @@
       <c r="E28">
         <v>450</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>204</v>
       </c>
@@ -863,8 +962,11 @@
       <c r="E29">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>205</v>
       </c>
@@ -880,8 +982,11 @@
       <c r="E30">
         <v>650</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>206</v>
       </c>
@@ -897,8 +1002,11 @@
       <c r="E31">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>207</v>
       </c>
@@ -914,8 +1022,11 @@
       <c r="E32">
         <v>430</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>208</v>
       </c>
@@ -931,8 +1042,11 @@
       <c r="E33">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>209</v>
       </c>
@@ -948,8 +1062,11 @@
       <c r="E34">
         <v>890</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>210</v>
       </c>
@@ -965,8 +1082,11 @@
       <c r="E35">
         <v>800</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>211</v>
       </c>
@@ -982,8 +1102,11 @@
       <c r="E36">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>212</v>
       </c>
@@ -999,8 +1122,11 @@
       <c r="E37">
         <v>540</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>213</v>
       </c>
@@ -1016,8 +1142,11 @@
       <c r="E38">
         <v>330</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>214</v>
       </c>
@@ -1033,8 +1162,11 @@
       <c r="E39">
         <v>280</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>215</v>
       </c>
@@ -1050,8 +1182,11 @@
       <c r="E40">
         <v>800</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>216</v>
       </c>
@@ -1067,8 +1202,11 @@
       <c r="E41">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>207</v>
       </c>
@@ -1084,8 +1222,11 @@
       <c r="E42">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>301</v>
       </c>
@@ -1101,8 +1242,11 @@
       <c r="E43">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>302</v>
       </c>
@@ -1118,8 +1262,11 @@
       <c r="E44">
         <v>650</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>303</v>
       </c>
@@ -1135,8 +1282,11 @@
       <c r="E45">
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>304</v>
       </c>
@@ -1152,8 +1302,11 @@
       <c r="E46">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>123</v>
       </c>
@@ -1169,8 +1322,11 @@
       <c r="E47">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>305</v>
       </c>
@@ -1186,8 +1342,11 @@
       <c r="E48">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>306</v>
       </c>
@@ -1203,8 +1362,11 @@
       <c r="E49">
         <v>340</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>307</v>
       </c>
@@ -1220,8 +1382,11 @@
       <c r="E50">
         <v>450</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>308</v>
       </c>
@@ -1237,8 +1402,11 @@
       <c r="E51">
         <v>120</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>104</v>
       </c>
@@ -1254,8 +1422,11 @@
       <c r="E52">
         <v>650</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>401</v>
       </c>
@@ -1271,8 +1442,11 @@
       <c r="E53">
         <v>200</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>307</v>
       </c>
@@ -1288,8 +1462,11 @@
       <c r="E54">
         <v>430</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>402</v>
       </c>
@@ -1305,8 +1482,11 @@
       <c r="E55">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>403</v>
       </c>
@@ -1322,8 +1502,11 @@
       <c r="E56">
         <v>890</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>404</v>
       </c>
@@ -1339,8 +1522,11 @@
       <c r="E57">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>405</v>
       </c>
@@ -1356,8 +1542,11 @@
       <c r="E58">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>406</v>
       </c>
@@ -1373,8 +1562,11 @@
       <c r="E59">
         <v>540</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>407</v>
       </c>
@@ -1390,8 +1582,11 @@
       <c r="E60">
         <v>330</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>115</v>
       </c>
@@ -1407,8 +1602,11 @@
       <c r="E61">
         <v>280</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>408</v>
       </c>
@@ -1424,8 +1622,11 @@
       <c r="E62">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>409</v>
       </c>
@@ -1441,8 +1642,11 @@
       <c r="E63">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>410</v>
       </c>
@@ -1458,8 +1662,11 @@
       <c r="E64">
         <v>2000</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>411</v>
       </c>
@@ -1475,8 +1682,11 @@
       <c r="E65">
         <v>700</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>412</v>
       </c>
@@ -1492,8 +1702,11 @@
       <c r="E66">
         <v>650</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>413</v>
       </c>
@@ -1509,8 +1722,11 @@
       <c r="E67">
         <v>440</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>414</v>
       </c>
@@ -1526,8 +1742,11 @@
       <c r="E68">
         <v>200</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>415</v>
       </c>
@@ -1543,8 +1762,11 @@
       <c r="E69">
         <v>300</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>416</v>
       </c>
@@ -1560,8 +1782,11 @@
       <c r="E70">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>417</v>
       </c>
@@ -1577,8 +1802,11 @@
       <c r="E71">
         <v>340</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>209</v>
       </c>
@@ -1594,8 +1822,11 @@
       <c r="E72">
         <v>450</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>501</v>
       </c>
@@ -1611,8 +1842,11 @@
       <c r="E73">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>502</v>
       </c>
@@ -1628,8 +1862,11 @@
       <c r="E74">
         <v>650</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>503</v>
       </c>
@@ -1645,8 +1882,11 @@
       <c r="E75">
         <v>200</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>504</v>
       </c>
@@ -1662,8 +1902,11 @@
       <c r="E76">
         <v>430</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>122</v>
       </c>
@@ -1679,8 +1922,11 @@
       <c r="E77">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>505</v>
       </c>
@@ -1696,8 +1942,11 @@
       <c r="E78">
         <v>890</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>506</v>
       </c>
@@ -1713,8 +1962,11 @@
       <c r="E79">
         <v>800</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>403</v>
       </c>
@@ -1730,8 +1982,11 @@
       <c r="E80">
         <v>700</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>507</v>
       </c>
@@ -1747,8 +2002,11 @@
       <c r="E81">
         <v>540</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>601</v>
       </c>
@@ -1764,8 +2022,11 @@
       <c r="E82">
         <v>330</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>602</v>
       </c>
@@ -1781,8 +2042,11 @@
       <c r="E83">
         <v>280</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>121</v>
       </c>
@@ -1798,8 +2062,11 @@
       <c r="E84">
         <v>800</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>603</v>
       </c>
@@ -1815,8 +2082,11 @@
       <c r="E85">
         <v>1000</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>604</v>
       </c>
@@ -1832,8 +2102,11 @@
       <c r="E86">
         <v>2000</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>605</v>
       </c>
@@ -1849,8 +2122,11 @@
       <c r="E87">
         <v>700</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>606</v>
       </c>
@@ -1866,8 +2142,11 @@
       <c r="E88">
         <v>650</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>116</v>
       </c>
@@ -1883,8 +2162,11 @@
       <c r="E89">
         <v>440</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>607</v>
       </c>
@@ -1900,8 +2182,11 @@
       <c r="E90">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>608</v>
       </c>
@@ -1917,8 +2202,11 @@
       <c r="E91">
         <v>300</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>609</v>
       </c>
@@ -1934,8 +2222,11 @@
       <c r="E92">
         <v>500</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>412</v>
       </c>
@@ -1951,8 +2242,11 @@
       <c r="E93">
         <v>340</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>610</v>
       </c>
@@ -1968,8 +2262,11 @@
       <c r="E94">
         <v>450</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>611</v>
       </c>
@@ -1985,8 +2282,11 @@
       <c r="E95">
         <v>120</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>612</v>
       </c>
@@ -2002,8 +2302,11 @@
       <c r="E96">
         <v>650</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>613</v>
       </c>
@@ -2019,8 +2322,11 @@
       <c r="E97">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>614</v>
       </c>
@@ -2036,8 +2342,11 @@
       <c r="E98">
         <v>430</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>615</v>
       </c>
@@ -2053,8 +2362,11 @@
       <c r="E99">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>616</v>
       </c>
@@ -2070,8 +2382,11 @@
       <c r="E100">
         <v>890</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>417</v>
       </c>
@@ -2087,8 +2402,11 @@
       <c r="E101">
         <v>800</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>617</v>
       </c>
@@ -2104,8 +2422,11 @@
       <c r="E102">
         <v>700</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>618</v>
       </c>
@@ -2121,8 +2442,11 @@
       <c r="E103">
         <v>540</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>619</v>
       </c>
@@ -2138,8 +2462,11 @@
       <c r="E104">
         <v>330</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>620</v>
       </c>
@@ -2155,8 +2482,11 @@
       <c r="E105">
         <v>280</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>621</v>
       </c>
@@ -2172,8 +2502,11 @@
       <c r="E106">
         <v>800</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>622</v>
       </c>
@@ -2189,8 +2522,11 @@
       <c r="E107">
         <v>1000</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>202</v>
       </c>
@@ -2206,8 +2542,11 @@
       <c r="E108">
         <v>2000</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>303</v>
       </c>
@@ -2223,8 +2562,11 @@
       <c r="E109">
         <v>700</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>503</v>
       </c>
@@ -2240,8 +2582,11 @@
       <c r="E110">
         <v>650</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>601</v>
       </c>
@@ -2257,8 +2602,11 @@
       <c r="E111">
         <v>440</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>701</v>
       </c>
@@ -2274,8 +2622,11 @@
       <c r="E112">
         <v>200</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>702</v>
       </c>
@@ -2291,8 +2642,11 @@
       <c r="E113">
         <v>300</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>703</v>
       </c>
@@ -2308,8 +2662,11 @@
       <c r="E114">
         <v>500</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>704</v>
       </c>
@@ -2325,8 +2682,11 @@
       <c r="E115">
         <v>340</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>705</v>
       </c>
@@ -2342,8 +2702,11 @@
       <c r="E116">
         <v>450</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>706</v>
       </c>
@@ -2359,8 +2722,11 @@
       <c r="E117">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>416</v>
       </c>
@@ -2376,8 +2742,11 @@
       <c r="E118">
         <v>650</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>707</v>
       </c>
@@ -2393,8 +2762,11 @@
       <c r="E119">
         <v>200</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>113</v>
       </c>
@@ -2410,8 +2782,11 @@
       <c r="E120">
         <v>430</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>801</v>
       </c>
@@ -2427,8 +2802,11 @@
       <c r="E121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>802</v>
       </c>
@@ -2444,8 +2822,11 @@
       <c r="E122">
         <v>890</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>803</v>
       </c>
@@ -2461,8 +2842,11 @@
       <c r="E123">
         <v>800</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>409</v>
       </c>
@@ -2478,8 +2862,11 @@
       <c r="E124">
         <v>700</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>608</v>
       </c>
@@ -2495,8 +2882,11 @@
       <c r="E125">
         <v>540</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>804</v>
       </c>
@@ -2512,8 +2902,11 @@
       <c r="E126">
         <v>330</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>805</v>
       </c>
@@ -2529,8 +2922,11 @@
       <c r="E127">
         <v>280</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>806</v>
       </c>
@@ -2546,8 +2942,11 @@
       <c r="E128">
         <v>800</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>705</v>
       </c>
@@ -2563,8 +2962,11 @@
       <c r="E129">
         <v>1000</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>618</v>
       </c>
@@ -2580,8 +2982,11 @@
       <c r="E130">
         <v>2000</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>112</v>
       </c>
@@ -2597,8 +3002,11 @@
       <c r="E131">
         <v>700</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>901</v>
       </c>
@@ -2614,8 +3022,11 @@
       <c r="E132">
         <v>650</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>406</v>
       </c>
@@ -2631,8 +3042,11 @@
       <c r="E133">
         <v>440</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>605</v>
       </c>
@@ -2648,8 +3062,11 @@
       <c r="E134">
         <v>280</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>902</v>
       </c>
@@ -2665,8 +3082,11 @@
       <c r="E135">
         <v>800</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>119</v>
       </c>
@@ -2682,8 +3102,11 @@
       <c r="E136">
         <v>1000</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>903</v>
       </c>
@@ -2699,8 +3122,11 @@
       <c r="E137">
         <v>2000</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>702</v>
       </c>
@@ -2716,8 +3142,11 @@
       <c r="E138">
         <v>700</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>904</v>
       </c>
@@ -2733,8 +3162,11 @@
       <c r="E139">
         <v>650</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>621</v>
       </c>
@@ -2749,6 +3181,9 @@
       </c>
       <c r="E140">
         <v>440</v>
+      </c>
+      <c r="F140">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
